--- a/oudelijn-2022.xlsx
+++ b/oudelijn-2022.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3961B6A7-0786-4C4A-AE23-B84A40EC6B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3491421A-C707-42B6-A764-1649F73ABCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10162" yWindow="3375" windowWidth="21502" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinseries" sheetId="1" r:id="rId1"/>
     <sheet name="Spots" sheetId="2" r:id="rId2"/>
+    <sheet name="Quickdrive" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Spots!$A$1:$F$29</definedName>
@@ -63,8 +64,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tom</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{CA89C031-2BFE-498D-B524-A4016787A4A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+alle treinen naar portaal sturen ivm achteruit rijden :/ (voor hele scenario)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
   <si>
     <t>Treinserie</t>
   </si>
@@ -280,13 +315,103 @@
   </si>
   <si>
     <t>Sion-rail</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Opstel</t>
+  </si>
+  <si>
+    <t>Timers</t>
+  </si>
+  <si>
+    <t>Altijd-rood</t>
+  </si>
+  <si>
+    <t>6300 Hlm-Gvc</t>
+  </si>
+  <si>
+    <t>Hlm:
+- 2200 Hlm3
+- 3400 Hlm5</t>
+  </si>
+  <si>
+    <t>AI vóór speler</t>
+  </si>
+  <si>
+    <t>Player spawn</t>
+  </si>
+  <si>
+    <t>Jaartal</t>
+  </si>
+  <si>
+    <t>Ledn:
+- 700/1800 Ledn4
+- 2200 Ledn5b
+- 8800 Ledn1</t>
+  </si>
+  <si>
+    <t>Gvc:
+- 1100 Gvc3
+- 1700/11700 Bkh-Gvc5
+- 2000 Gvc4
+- 3300 Gvc8
+- 6800/6900 Gvc6</t>
+  </si>
+  <si>
+    <t>- Hlm
+- Ledn</t>
+  </si>
+  <si>
+    <t>nvt</t>
+  </si>
+  <si>
+    <t>G Utg-Kfh vv</t>
+  </si>
+  <si>
+    <t>Freight Paper</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Hlm-Ledn:
+- 6300 Had
+- 2200 Had-Hil
+- G Hil
+- 2100 Nwh</t>
+  </si>
+  <si>
+    <t>Ledn-Gvc:
+- G Ledn
+- 2400 Dvnk
+- 3300 Dvnk
+- 2100 Vst
+- 3200 Vst-Gvm
+- 6300 Gvm
+- 700/1800 Gvc-Laa</t>
+  </si>
+  <si>
+    <t>Spots verwerkt?</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>- Hlm
+- Ledn (geen)
+- Gvc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,13 +440,38 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -336,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -345,6 +495,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -667,380 +827,460 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
+      <c r="A3" t="s">
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1400</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="A4" s="3">
+        <v>3400</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1700</v>
+      <c r="A5" s="3">
+        <v>4800</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1800</v>
+      <c r="A6" s="3">
+        <v>5400</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>2000</v>
+      <c r="A7" s="1">
+        <v>6300</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>2100</v>
+      <c r="A8" s="3">
+        <v>6800</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>2200</v>
+      <c r="A9" s="3">
+        <v>6900</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
-        <v>2400</v>
+        <v>8800</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
-        <v>3200</v>
+        <v>8900</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1400</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
+      <c r="F12">
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
-        <v>3400</v>
+      <c r="A13" s="1">
+        <v>2100</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
-        <v>3700</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
+      <c r="A14" s="1">
+        <v>2200</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
+      <c r="F14">
+        <v>220</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
-        <v>4600</v>
+        <v>2400</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
-        <v>5000</v>
+        <v>3700</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>700</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="3">
-        <v>5100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="3">
-        <v>5400</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2000</v>
+      </c>
+      <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>6300</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
       <c r="D20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="3">
-        <v>6800</v>
+      <c r="A21">
+        <v>1700</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
-        <v>6900</v>
+        <v>11700</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
-        <v>8800</v>
+        <v>3300</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
-        <v>8900</v>
+        <v>4600</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
-        <v>11700</v>
+        <v>5000</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
-        <v>15400</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
+        <v>5100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
-        <v>22200</v>
+        <v>15400</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
+        <v>22200</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
         <v>25400</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G28" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
-      <sortCondition ref="A1:A28"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
+      <sortCondition ref="E1:E28"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1053,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D72D8-1A15-461C-B9BE-A0C039E1F535}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1652,4 +1892,131 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32755743-5F30-4C0D-B177-00F7BF3A2538}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/oudelijn-2022.xlsx
+++ b/oudelijn-2022.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3491421A-C707-42B6-A764-1649F73ABCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF35ACD-C011-4256-83E2-CE5003443A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17692" yWindow="6495" windowWidth="21503" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinseries" sheetId="1" r:id="rId1"/>
     <sheet name="Spots" sheetId="2" r:id="rId2"/>
     <sheet name="Quickdrive" sheetId="3" r:id="rId3"/>
+    <sheet name="Standard scenarios" sheetId="5" r:id="rId4"/>
+    <sheet name="Spot-scenarios" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Spots!$A$1:$F$29</definedName>
@@ -99,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="109">
   <si>
     <t>Treinserie</t>
   </si>
@@ -405,6 +407,62 @@
     <t>- Hlm
 - Ledn (geen)
 - Gvc</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Spots somda</t>
+  </si>
+  <si>
+    <t>Spots sion-rail</t>
+  </si>
+  <si>
+    <t>Treinen vóór speler</t>
+  </si>
+  <si>
+    <t>Timetable</t>
+  </si>
+  <si>
+    <t>Koersborden</t>
+  </si>
+  <si>
+    <t>Scenario script (WX)</t>
+  </si>
+  <si>
+    <t>Briefing</t>
+  </si>
+  <si>
+    <t>Spotten Hlm</t>
+  </si>
+  <si>
+    <t>Sommer-Strand-Express</t>
+  </si>
+  <si>
+    <t>geen</t>
+  </si>
+  <si>
+    <t>Hlm:
+- 2100 rijdt niet
+- 3400 rijdt niet
+- 6349</t>
+  </si>
+  <si>
+    <t>Hlm-Zvt:
+- 5434</t>
+  </si>
+  <si>
+    <t>Zvt-Hlm:
+- 5453</t>
+  </si>
+  <si>
+    <t>Hlm:
+- 2100 rijdt niet
+- 2245
+- 3400 rijdt niet
+- 4834 voor speler
+- 4849
+- 6332</t>
   </si>
 </sst>
 </file>
@@ -486,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -504,6 +562,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1294,7 +1358,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1329,19 +1393,19 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1349,19 +1413,19 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1369,19 +1433,19 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1389,99 +1453,99 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1489,19 +1553,19 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1509,59 +1573,59 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" s="4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1572,16 +1636,16 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1592,36 +1656,36 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1629,19 +1693,19 @@
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1649,19 +1713,19 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1669,19 +1733,19 @@
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1689,19 +1753,19 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1709,19 +1773,19 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
         <v>31</v>
       </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1735,13 +1799,13 @@
         <v>15</v>
       </c>
       <c r="D22" s="4">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1752,13 +1816,13 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D23" s="4">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
         <v>61</v>
@@ -1769,39 +1833,39 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D24" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1809,19 +1873,19 @@
         <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" s="4">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1829,19 +1893,19 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1849,19 +1913,19 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1869,25 +1933,25 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F29" xr:uid="{1E4D72D8-1A15-461C-B9BE-A0C039E1F535}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F29">
-      <sortCondition ref="B1:B29"/>
+      <sortCondition ref="C1:C29"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1898,7 +1962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32755743-5F30-4C0D-B177-00F7BF3A2538}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2019,4 +2083,235 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A227BAE0-D981-4DAD-AC7F-3374DAD9329A}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793A580E-E7DF-48A4-BDF3-B821DD40F6FD}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.06640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/oudelijn-2022.xlsx
+++ b/oudelijn-2022.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF35ACD-C011-4256-83E2-CE5003443A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5DD219-9746-41F9-B78F-CD67F8FDECFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17692" yWindow="6495" windowWidth="21503" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="21503" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Treinseries" sheetId="1" r:id="rId1"/>
-    <sheet name="Spots" sheetId="2" r:id="rId2"/>
+    <sheet name="Spots" sheetId="2" r:id="rId1"/>
+    <sheet name="Treinseries" sheetId="1" r:id="rId2"/>
     <sheet name="Quickdrive" sheetId="3" r:id="rId3"/>
     <sheet name="Standard scenarios" sheetId="5" r:id="rId4"/>
     <sheet name="Spot-scenarios" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Spots!$A$1:$F$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Treinseries!$A$1:$G$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Spots!$A$1:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Treinseries!$A$1:$G$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -849,511 +849,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.1328125" customWidth="1"/>
-    <col min="2" max="2" width="8.265625" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" customWidth="1"/>
-    <col min="5" max="5" width="22.796875" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
-        <v>3400</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
-        <v>4800</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
-        <v>5400</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>6300</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
-        <v>6800</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
-        <v>6900</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
-        <v>8800</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
-        <v>8900</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>1400</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>2200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="3">
-        <v>3200</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="3">
-        <v>3700</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>700</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>1800</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>2000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>1700</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <v>200</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="3">
-        <v>11700</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22">
-        <v>200</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="3">
-        <v>3300</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="3">
-        <v>4600</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="3">
-        <v>5100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="3">
-        <v>15400</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="3">
-        <v>22200</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="3">
-        <v>25400</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G28" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
-      <sortCondition ref="E1:E28"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D72D8-1A15-461C-B9BE-A0C039E1F535}">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -1955,6 +1450,511 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
+    <col min="2" max="2" width="8.265625" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" customWidth="1"/>
+    <col min="5" max="5" width="22.796875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>700</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1400</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1700</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1800</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>3200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>3400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>4800</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>5100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <v>5400</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>6300</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <v>6800</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>8800</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>11700</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
+        <v>15400</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <v>22200</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
+        <v>25400</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G28" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
+      <sortCondition ref="A1:A28"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2089,7 +2089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A227BAE0-D981-4DAD-AC7F-3374DAD9329A}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/oudelijn-2022.xlsx
+++ b/oudelijn-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5DD219-9746-41F9-B78F-CD67F8FDECFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC12D80-122B-4ABA-AF03-84B246587713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="21503" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7200" yWindow="3697" windowWidth="15247" windowHeight="11648" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spots" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="117">
   <si>
     <t>Treinserie</t>
   </si>
@@ -463,6 +463,66 @@
 - 4834 voor speler
 - 4849
 - 6332</t>
+  </si>
+  <si>
+    <t>Radar 12:50
+'- 4847
+- 2238</t>
+  </si>
+  <si>
+    <t>Radar 12:55
+- 5434</t>
+  </si>
+  <si>
+    <t>Radar 13:00
+- 5453
+- 6351
+- 6332</t>
+  </si>
+  <si>
+    <t>Radar 13:05
+- 2245
+- 4834</t>
+  </si>
+  <si>
+    <t>Radar 13:10
+- 4849</t>
+  </si>
+  <si>
+    <t>Radar 13:15</t>
+  </si>
+  <si>
+    <t>Radar 13:20
+- 2240</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sommer-Strand-Express v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9 juli 2022
+13470 -&gt;Zvt
+Zvt a &lt;13:00
+70450 Zvt-&gt;Hlm
+Zvt 13:05~13:10
+Hlm 13:25</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -550,7 +610,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -568,6 +627,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -859,7 +921,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="4.53125" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="30.19921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -893,7 +955,7 @@
       <c r="C2">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>41</v>
       </c>
       <c r="E2" t="s">
@@ -913,7 +975,7 @@
       <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>35</v>
       </c>
       <c r="E3" t="s">
@@ -933,7 +995,7 @@
       <c r="C4">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>44</v>
       </c>
       <c r="E4" t="s">
@@ -953,7 +1015,7 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>16</v>
       </c>
       <c r="E5" t="s">
@@ -973,7 +1035,7 @@
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>20</v>
       </c>
       <c r="E6" t="s">
@@ -993,7 +1055,7 @@
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>24</v>
       </c>
       <c r="E7" t="s">
@@ -1013,7 +1075,7 @@
       <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>25</v>
       </c>
       <c r="E8" t="s">
@@ -1033,7 +1095,7 @@
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>39</v>
       </c>
       <c r="E9" t="s">
@@ -1053,7 +1115,7 @@
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>47</v>
       </c>
       <c r="E10" t="s">
@@ -1073,7 +1135,7 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>58</v>
       </c>
       <c r="E11" t="s">
@@ -1093,7 +1155,7 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>14</v>
       </c>
       <c r="E12" t="s">
@@ -1113,7 +1175,7 @@
       <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>14</v>
       </c>
       <c r="E13" t="s">
@@ -1133,7 +1195,7 @@
       <c r="C14">
         <v>11</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>30</v>
       </c>
       <c r="E14" t="s">
@@ -1153,7 +1215,7 @@
       <c r="C15">
         <v>11</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>30</v>
       </c>
       <c r="E15" t="s">
@@ -1173,7 +1235,7 @@
       <c r="C16">
         <v>11</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>50</v>
       </c>
       <c r="E16" t="s">
@@ -1193,7 +1255,7 @@
       <c r="C17">
         <v>11</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>55</v>
       </c>
       <c r="E17" t="s">
@@ -1213,7 +1275,7 @@
       <c r="C18">
         <v>12</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>19</v>
       </c>
       <c r="E18" t="s">
@@ -1233,7 +1295,7 @@
       <c r="C19">
         <v>13</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>56</v>
       </c>
       <c r="E19" t="s">
@@ -1253,7 +1315,7 @@
       <c r="C20">
         <v>14</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>17</v>
       </c>
       <c r="E20" t="s">
@@ -1273,7 +1335,7 @@
       <c r="C21">
         <v>14</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>55</v>
       </c>
       <c r="E21" t="s">
@@ -1293,7 +1355,7 @@
       <c r="C22">
         <v>15</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>5</v>
       </c>
       <c r="E22" t="s">
@@ -1313,7 +1375,7 @@
       <c r="C23">
         <v>15</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>22</v>
       </c>
       <c r="E23" t="s">
@@ -1333,7 +1395,7 @@
       <c r="C24">
         <v>15</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>22</v>
       </c>
       <c r="E24" t="s">
@@ -1353,7 +1415,7 @@
       <c r="C25">
         <v>15</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>23</v>
       </c>
       <c r="E25" t="s">
@@ -1373,7 +1435,7 @@
       <c r="C26">
         <v>15</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>33</v>
       </c>
       <c r="E26" t="s">
@@ -1393,7 +1455,7 @@
       <c r="C27">
         <v>15</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>36</v>
       </c>
       <c r="E27" t="s">
@@ -1413,7 +1475,7 @@
       <c r="C28">
         <v>16</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>40</v>
       </c>
       <c r="E28" t="s">
@@ -1433,7 +1495,7 @@
       <c r="C29">
         <v>19</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>44</v>
       </c>
       <c r="E29" t="s">
@@ -1457,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1634,7 +1696,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>2400</v>
       </c>
       <c r="C10" t="s">
@@ -1651,7 +1713,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>3200</v>
       </c>
       <c r="C11" t="s">
@@ -1668,7 +1730,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>3300</v>
       </c>
       <c r="C12" t="s">
@@ -1685,7 +1747,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>3400</v>
       </c>
       <c r="C13" t="s">
@@ -1702,7 +1764,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>3700</v>
       </c>
       <c r="B14" t="s">
@@ -1722,7 +1784,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>4600</v>
       </c>
       <c r="C15" t="s">
@@ -1739,7 +1801,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>4800</v>
       </c>
       <c r="C16" t="s">
@@ -1756,7 +1818,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>5000</v>
       </c>
       <c r="C17" t="s">
@@ -1773,7 +1835,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>5100</v>
       </c>
       <c r="C18" t="s">
@@ -1790,7 +1852,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>5400</v>
       </c>
       <c r="C19" t="s">
@@ -1824,7 +1886,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>6800</v>
       </c>
       <c r="C21" t="s">
@@ -1841,7 +1903,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>6900</v>
       </c>
       <c r="C22" t="s">
@@ -1858,7 +1920,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>8800</v>
       </c>
       <c r="C23" t="s">
@@ -1875,7 +1937,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>8900</v>
       </c>
       <c r="C24" t="s">
@@ -1892,7 +1954,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>11700</v>
       </c>
       <c r="C25" t="s">
@@ -1912,7 +1974,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>15400</v>
       </c>
       <c r="B26" t="s">
@@ -1920,7 +1982,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>22200</v>
       </c>
       <c r="B27" t="s">
@@ -1928,7 +1990,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>25400</v>
       </c>
       <c r="B28" t="s">
@@ -1973,111 +2035,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>3022</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2087,127 +2149,156 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A227BAE0-D981-4DAD-AC7F-3374DAD9329A}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.06640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="C3" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="C4" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2226,7 +2317,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
@@ -2234,80 +2325,80 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>101</v>
       </c>
     </row>
